--- a/medicine/Psychotrope/Mortlach/Mortlach.xlsx
+++ b/medicine/Psychotrope/Mortlach/Mortlach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mortlach est une distillerie de whisky située à Dufftown dans la région du Speyside en Écosse. Elle fut créée en 1823, année où les premières autorisations de distiller ont été accordées (Excise Act).
 C'est la première distillerie construite à Dufftown qui en compte désormais une petite dizaine. La distillerie fut rachetée par Johnnie Walker en 1923.
-Elle appartient au groupe Diageo[1].
-Pendant toute la seconde Guerre mondiale, excepté une brève période en 1944, Mortlach a été l'une des rares distilleries écossaise autorisée à produire en quantité limitée[2].
-Elle offre la particularité de produire un whisky issu de 2,8 distillations[3]. En fait 80 % de la production est distillé trois fois, les 20 % restants n'étant distillés que deux fois.
+Elle appartient au groupe Diageo.
+Pendant toute la seconde Guerre mondiale, excepté une brève période en 1944, Mortlach a été l'une des rares distilleries écossaise autorisée à produire en quantité limitée.
+Elle offre la particularité de produire un whisky issu de 2,8 distillations. En fait 80 % de la production est distillé trois fois, les 20 % restants n'étant distillés que deux fois.
 La caractéristique gustative de Mortlach est son côté carné, associé aux saveurs traditionnelles du Speyside, à savoir un riche fruité.
 </t>
         </is>
